--- a/batt_sust_model/data/process_formulas.xlsx
+++ b/batt_sust_model/data/process_formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/PhD/Models/ME optimisation model/ME_battery_supply_chain/Model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{312CCCB3-7600-441C-A0C7-527D08134704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E677F190-80BD-419C-B257-947A9F657D29}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="13_ncr:1_{312CCCB3-7600-441C-A0C7-527D08134704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA34DAC5-B428-4A34-BCEA-9EC3FACD2149}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">activity_functions!$A$1:$E$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">activity_functions_cut_off!$A$1:$E$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">activity_functions_cut_off!$A$1:$E$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">old!$A$1:$E$136</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="324">
   <si>
     <t>int</t>
   </si>
@@ -992,6 +992,30 @@
   </si>
   <si>
     <t>((binder_solvent_nmp/py_am_mixing_total)*py_am_mixing)*-(1-py_nmp_recovery)</t>
+  </si>
+  <si>
+    <t>battery jacket production</t>
+  </si>
+  <si>
+    <t>impact extrusion of aluminium, 1 stroke</t>
+  </si>
+  <si>
+    <t>steel, low-alloyed</t>
+  </si>
+  <si>
+    <t>sheet rolling, steel</t>
+  </si>
+  <si>
+    <t>deep drawing, steel, 10000 kN press, single stroke</t>
+  </si>
+  <si>
+    <t>battery_jacket_al/battery_jacket</t>
+  </si>
+  <si>
+    <t>battery_jacket_insulation/battery_jacket</t>
+  </si>
+  <si>
+    <t>battery_jacket_fe/battery_jacket</t>
   </si>
 </sst>
 </file>
@@ -3788,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,102 +3933,102 @@
       <c r="A7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
+      <c r="B7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E7" t="s">
-        <v>199</v>
+      <c r="E7" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
+      <c r="B8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E8" t="s">
-        <v>200</v>
+      <c r="E8" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
+      <c r="B9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E9" t="s">
-        <v>201</v>
+      <c r="E9" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
+      <c r="B10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E10" t="s">
-        <v>202</v>
+      <c r="E10" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
+      <c r="B11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E11" t="s">
-        <v>203</v>
+      <c r="E11" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
+      <c r="B12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>204</v>
+      <c r="E12" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4015,13 +4039,13 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,13 +4056,13 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4049,13 +4073,13 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4066,30 +4090,30 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" t="s">
-        <v>210</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,16 +4121,16 @@
         <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>223</v>
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E18" t="s">
-        <v>232</v>
+      <c r="E18" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4114,16 +4138,16 @@
         <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,16 +4155,16 @@
         <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4148,16 +4172,16 @@
         <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
         <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4165,19 +4189,19 @@
         <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
@@ -4185,13 +4209,13 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,14 +4225,14 @@
       <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,13 +4243,13 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4236,13 +4260,13 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4253,13 +4277,13 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,13 +4294,13 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,13 +4311,13 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4304,13 +4328,13 @@
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,13 +4345,13 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,16 +4359,16 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
         <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4352,16 +4376,16 @@
         <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,16 +4393,16 @@
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,16 +4410,16 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4403,16 +4427,16 @@
         <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4420,16 +4444,16 @@
         <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
         <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4440,13 +4464,13 @@
         <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4457,13 +4481,13 @@
         <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,13 +4498,13 @@
         <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,13 +4515,13 @@
         <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
         <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,13 +4532,13 @@
         <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4525,13 +4549,13 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,13 +4566,13 @@
         <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
         <v>209</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4583,13 @@
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,13 +4600,13 @@
         <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,13 +4617,13 @@
         <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,16 +4631,16 @@
         <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,16 +4648,16 @@
         <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
         <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,16 +4665,16 @@
         <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
         <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,16 +4682,16 @@
         <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4675,16 +4699,16 @@
         <v>198</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4692,16 +4716,16 @@
         <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,13 +4736,13 @@
         <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
         <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,13 +4753,13 @@
         <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
         <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4746,13 +4770,13 @@
         <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4763,13 +4787,13 @@
         <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
         <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4780,13 +4804,13 @@
         <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
         <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,13 +4821,13 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4814,13 +4838,13 @@
         <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,13 +4855,13 @@
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4848,13 +4872,13 @@
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4865,13 +4889,13 @@
         <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,16 +4903,16 @@
         <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
         <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4896,16 +4920,16 @@
         <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
         <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,16 +4937,16 @@
         <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,13 +4954,13 @@
         <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E67" t="s">
         <v>121</v>
@@ -4947,16 +4971,16 @@
         <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,16 +4988,16 @@
         <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,10 +5005,10 @@
         <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
         <v>209</v>
@@ -4998,7 +5022,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>263</v>
@@ -5007,7 +5031,7 @@
         <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,16 +5039,16 @@
         <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5032,16 +5056,16 @@
         <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,16 +5073,16 @@
         <v>198</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,13 +5090,13 @@
         <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
         <v>121</v>
@@ -5083,16 +5107,16 @@
         <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5100,7 +5124,7 @@
         <v>198</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>263</v>
@@ -5109,7 +5133,7 @@
         <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,16 +5141,16 @@
         <v>198</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
         <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5134,16 +5158,16 @@
         <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
         <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,13 +5175,13 @@
         <v>198</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
         <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
         <v>131</v>
@@ -5168,16 +5192,16 @@
         <v>198</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
         <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5185,16 +5209,16 @@
         <v>198</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>282</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5202,16 +5226,16 @@
         <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
         <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5219,16 +5243,16 @@
         <v>198</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,16 +5260,16 @@
         <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,16 +5277,16 @@
         <v>198</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>209</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,16 +5294,16 @@
         <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
         <v>209</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,16 +5311,16 @@
         <v>198</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="D88" t="s">
         <v>209</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,16 +5328,16 @@
         <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="D89" t="s">
         <v>209</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5321,16 +5345,16 @@
         <v>198</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,13 +5365,13 @@
         <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
         <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,13 +5382,13 @@
         <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
         <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5375,13 +5399,13 @@
         <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5392,13 +5416,13 @@
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,13 +5433,13 @@
         <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>210</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>244</v>
+        <v>209</v>
+      </c>
+      <c r="E95" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5426,47 +5450,47 @@
         <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D97" t="s">
         <v>209</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
         <v>209</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,16 +5498,16 @@
         <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5491,16 +5515,16 @@
         <v>198</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5508,16 +5532,16 @@
         <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" t="s">
-        <v>157</v>
+        <v>210</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,50 +5549,50 @@
         <v>198</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>209</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5576,16 +5600,16 @@
         <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
         <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5593,16 +5617,16 @@
         <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5610,16 +5634,16 @@
         <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="D107" t="s">
         <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5627,16 +5651,16 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
         <v>209</v>
       </c>
       <c r="E108" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5644,13 +5668,13 @@
         <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s">
         <v>158</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
         <v>164</v>
@@ -5664,13 +5688,13 @@
         <v>159</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E110" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5681,13 +5705,13 @@
         <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,16 +5719,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
         <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5712,16 +5736,16 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
         <v>209</v>
       </c>
       <c r="E113" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,16 +5753,16 @@
         <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="D114" t="s">
         <v>209</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5746,16 +5770,16 @@
         <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,16 +5787,16 @@
         <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5780,16 +5804,16 @@
         <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5797,16 +5821,16 @@
         <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="D118" t="s">
         <v>209</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,16 +5838,16 @@
         <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
         <v>209</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5831,16 +5855,16 @@
         <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D120" t="s">
         <v>209</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5848,16 +5872,16 @@
         <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5865,16 +5889,16 @@
         <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,13 +5909,13 @@
         <v>169</v>
       </c>
       <c r="C123" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
         <v>209</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5902,13 +5926,13 @@
         <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
         <v>209</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5919,13 +5943,13 @@
         <v>169</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
         <v>209</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5936,13 +5960,13 @@
         <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D126" t="s">
         <v>209</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,13 +5977,13 @@
         <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D127" t="s">
         <v>209</v>
       </c>
       <c r="E127" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5970,13 +5994,13 @@
         <v>169</v>
       </c>
       <c r="C128" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="D128" t="s">
         <v>209</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5987,13 +6011,13 @@
         <v>169</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D129" t="s">
         <v>209</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6004,13 +6028,13 @@
         <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
         <v>209</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6021,13 +6045,13 @@
         <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D131" t="s">
         <v>209</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6038,13 +6062,13 @@
         <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
         <v>209</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6055,13 +6079,13 @@
         <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E133" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6069,16 +6093,16 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="D134" t="s">
         <v>209</v>
       </c>
       <c r="E134" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6086,50 +6110,50 @@
         <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>222</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>223</v>
+        <v>169</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D136" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E136" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E137" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6137,16 +6161,16 @@
         <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6154,16 +6178,16 @@
         <v>198</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E139" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,16 +6195,16 @@
         <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="C140" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E140" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6188,41 +6212,41 @@
         <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
-      </c>
-      <c r="C141" t="s">
-        <v>291</v>
+        <v>222</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D141" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
         <v>210</v>
       </c>
       <c r="E142" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B143" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s">
         <v>291</v>
@@ -6231,7 +6255,7 @@
         <v>210</v>
       </c>
       <c r="E143" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,16 +6263,16 @@
         <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C144" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D144" t="s">
         <v>210</v>
       </c>
       <c r="E144" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,7 +6280,7 @@
         <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C145" t="s">
         <v>291</v>
@@ -6265,7 +6289,7 @@
         <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,16 +6297,16 @@
         <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D146" t="s">
         <v>210</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>306</v>
+      <c r="E146" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6290,7 +6314,7 @@
         <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
         <v>291</v>
@@ -6298,8 +6322,8 @@
       <c r="D147" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>244</v>
+      <c r="E147" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6307,16 +6331,16 @@
         <v>198</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D148" t="s">
         <v>210</v>
       </c>
       <c r="E148" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6324,7 +6348,7 @@
         <v>198</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
         <v>291</v>
@@ -6333,7 +6357,7 @@
         <v>210</v>
       </c>
       <c r="E149" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6341,16 +6365,16 @@
         <v>198</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
         <v>210</v>
       </c>
       <c r="E150" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,7 +6382,7 @@
         <v>198</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C151" t="s">
         <v>291</v>
@@ -6367,7 +6391,7 @@
         <v>210</v>
       </c>
       <c r="E151" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6375,16 +6399,16 @@
         <v>198</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C152" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
         <v>210</v>
       </c>
-      <c r="E152" t="s">
-        <v>309</v>
+      <c r="E152" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6392,7 +6416,7 @@
         <v>198</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C153" t="s">
         <v>291</v>
@@ -6400,8 +6424,8 @@
       <c r="D153" t="s">
         <v>210</v>
       </c>
-      <c r="E153" t="s">
-        <v>310</v>
+      <c r="E153" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,16 +6433,16 @@
         <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D154" t="s">
         <v>210</v>
       </c>
       <c r="E154" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,7 +6450,7 @@
         <v>198</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C155" t="s">
         <v>291</v>
@@ -6435,7 +6459,7 @@
         <v>210</v>
       </c>
       <c r="E155" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6443,20 +6467,122 @@
         <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="D156" t="s">
         <v>210</v>
       </c>
       <c r="E156" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" t="s">
+        <v>291</v>
+      </c>
+      <c r="D157" t="s">
+        <v>210</v>
+      </c>
+      <c r="E157" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" t="s">
+        <v>229</v>
+      </c>
+      <c r="D158" t="s">
+        <v>210</v>
+      </c>
+      <c r="E158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>291</v>
+      </c>
+      <c r="D159" t="s">
+        <v>210</v>
+      </c>
+      <c r="E159" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" t="s">
+        <v>227</v>
+      </c>
+      <c r="D160" t="s">
+        <v>210</v>
+      </c>
+      <c r="E160" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B161" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" t="s">
+        <v>210</v>
+      </c>
+      <c r="E161" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B162" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E159" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
+  <autoFilter ref="A1:E165" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/batt_sust_model/data/process_formulas.xlsx
+++ b/batt_sust_model/data/process_formulas.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="13_ncr:1_{312CCCB3-7600-441C-A0C7-527D08134704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D23EEE4-C043-48AC-98B3-ED4C2C3B0131}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="13_ncr:1_{312CCCB3-7600-441C-A0C7-527D08134704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0ACE74-6F4F-4133-90DC-876510571954}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="4" r:id="rId1"/>
     <sheet name="supply_chain_parameters" sheetId="1" r:id="rId2"/>
     <sheet name="activity_functions_cut_off" sheetId="5" r:id="rId3"/>
-    <sheet name="old" sheetId="7" r:id="rId4"/>
-    <sheet name="waste" sheetId="6" r:id="rId5"/>
-    <sheet name="cut_off_modules" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="old" sheetId="7" r:id="rId5"/>
+    <sheet name="waste" sheetId="6" r:id="rId6"/>
+    <sheet name="cut_off_modules" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">activity_functions_cut_off!$A$1:$E$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">old!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">activity_functions_cut_off!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">old!$A$1:$E$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="561">
   <si>
     <t>int</t>
   </si>
@@ -951,9 +952,6 @@
     <t>impact extrusion of aluminium, 1 stroke</t>
   </si>
   <si>
-    <t>steel, low-alloyed</t>
-  </si>
-  <si>
     <t>sheet rolling, steel</t>
   </si>
   <si>
@@ -1008,9 +1006,6 @@
     <t>market for polypropylene, granulate</t>
   </si>
   <si>
-    <t>metal working factory construction</t>
-  </si>
-  <si>
     <t>market for polyethylene terephthalate, granulate, amorphous</t>
   </si>
   <si>
@@ -1215,9 +1210,6 @@
     <t>pack terminals production</t>
   </si>
   <si>
-    <t>module compression plates production</t>
-  </si>
-  <si>
     <t>pack heater production</t>
   </si>
   <si>
@@ -1299,9 +1291,6 @@
     <t>c4ee598fe7c2e20fe86f502ebf38ed2f</t>
   </si>
   <si>
-    <t>bed2cc925eea8d65b1e593f3ccde1ca1</t>
-  </si>
-  <si>
     <t>6ff673fc980833afeb85aed4b403dd92</t>
   </si>
   <si>
@@ -1548,33 +1537,21 @@
     <t>75173d9eddb2438f858a395027b78fdc</t>
   </si>
   <si>
-    <t>bd60779bc159428eb522d32c7efd469c_copy5</t>
-  </si>
-  <si>
     <t>1dd1bf4e44ad43b5bd5ecf693751b441_copy6</t>
   </si>
   <si>
     <t>82c4d4e3752343e9aa97a77486284d97</t>
   </si>
   <si>
-    <t>bd60779bc159428eb522d32c7efd469c_copy4</t>
-  </si>
-  <si>
     <t>1dd1bf4e44ad43b5bd5ecf693751b441_copy3</t>
   </si>
   <si>
     <t>1dd1bf4e44ad43b5bd5ecf693751b441</t>
   </si>
   <si>
-    <t>1dd1bf4e44ad43b5bd5ecf693751b441_copy2</t>
-  </si>
-  <si>
     <t>1dd1bf4e44ad43b5bd5ecf693751b441_copy4</t>
   </si>
   <si>
-    <t>bd60779bc159428eb522d32c7efd469c_copy6</t>
-  </si>
-  <si>
     <t>1dd1bf4e44ad43b5bd5ecf693751b441_copy5</t>
   </si>
   <si>
@@ -1645,6 +1622,111 @@
   </si>
   <si>
     <t>pack</t>
+  </si>
+  <si>
+    <t>module_polymer_panels</t>
+  </si>
+  <si>
+    <t>battery jacket aluminium</t>
+  </si>
+  <si>
+    <t>battery jacket insulation</t>
+  </si>
+  <si>
+    <t>battery jacket steel</t>
+  </si>
+  <si>
+    <t>module tabs</t>
+  </si>
+  <si>
+    <t>module row rack</t>
+  </si>
+  <si>
+    <t>module elastomer pads</t>
+  </si>
+  <si>
+    <t>module_tabs</t>
+  </si>
+  <si>
+    <t>module_elastomer_pads</t>
+  </si>
+  <si>
+    <t>module_row_rack</t>
+  </si>
+  <si>
+    <t>cooling mains Fe</t>
+  </si>
+  <si>
+    <t>cooling panels</t>
+  </si>
+  <si>
+    <t>cooling_connectors</t>
+  </si>
+  <si>
+    <t>cooling_mains_fe</t>
+  </si>
+  <si>
+    <t>cooling_panels</t>
+  </si>
+  <si>
+    <t>module tabs production</t>
+  </si>
+  <si>
+    <t>module interconnect panels production</t>
+  </si>
+  <si>
+    <t>458a17bec3ae45a0943380c9652c580c</t>
+  </si>
+  <si>
+    <t>0eb604062ce54cc58402135e2570dbdf</t>
+  </si>
+  <si>
+    <t>4f65f316bc694e36b511130330d28926</t>
+  </si>
+  <si>
+    <t>market for module elastomer pads</t>
+  </si>
+  <si>
+    <t>c958894bac5bd5fb29a0240d984d476a_copy1</t>
+  </si>
+  <si>
+    <t>e89e6c94d3f341e992c2013e7a90244f</t>
+  </si>
+  <si>
+    <t>module row rack production</t>
+  </si>
+  <si>
+    <t>bd60779bc159428eb522d32c7efd469c_copy7</t>
+  </si>
+  <si>
+    <t>8a6b2607b16342d19da9508c3b996d20</t>
+  </si>
+  <si>
+    <t>aaa06257c5d74892b222a1d5c1fbfa91</t>
+  </si>
+  <si>
+    <t>88ff04d1f5e2474fa65ea897709907e6</t>
+  </si>
+  <si>
+    <t>cathode_active_material_50_50_nmc532_lmo/py_am_mixing_total</t>
+  </si>
+  <si>
+    <t>cathode active material (50%/50% NMC532/LMO - )</t>
+  </si>
+  <si>
+    <t>battery jacket Fe</t>
+  </si>
+  <si>
+    <t>battery jacket Al</t>
+  </si>
+  <si>
+    <t>module polymer panels</t>
+  </si>
+  <si>
+    <t>cooling connectors</t>
+  </si>
+  <si>
+    <t>building and supporting systems</t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView topLeftCell="E59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2454,7 @@
         <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,13 +2465,13 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>557</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,13 +2482,13 @@
         <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>186</v>
+        <v>528</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,13 +2499,13 @@
         <v>300</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>302</v>
+        <v>556</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,13 +2516,13 @@
         <v>300</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,13 +2533,13 @@
         <v>300</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,13 +2873,13 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>555</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4525,13 +4607,13 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
         <v>205</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,13 +4624,13 @@
         <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D135" t="s">
         <v>205</v>
       </c>
       <c r="E135" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4641,13 @@
         <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
         <v>205</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,13 +4658,13 @@
         <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="D137" t="s">
         <v>205</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,13 +4675,13 @@
         <v>167</v>
       </c>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>558</v>
       </c>
       <c r="D138" t="s">
         <v>205</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,13 +4692,13 @@
         <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>530</v>
       </c>
       <c r="D139" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
-        <v>179</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,16 +4706,16 @@
         <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>531</v>
       </c>
       <c r="D140" t="s">
         <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>225</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,50 +4723,50 @@
         <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="C141" t="s">
+        <v>532</v>
       </c>
       <c r="D141" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E141" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>559</v>
       </c>
       <c r="D142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E142" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
       <c r="D143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E143" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4692,16 +4774,16 @@
         <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>232</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E144" t="s">
-        <v>286</v>
+        <v>540</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,16 +4791,16 @@
         <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="C145" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="D145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E145" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4726,16 +4808,16 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4743,41 +4825,41 @@
         <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
-      </c>
-      <c r="C147" t="s">
-        <v>275</v>
+        <v>217</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="D147" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E147" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D148" t="s">
         <v>206</v>
       </c>
       <c r="E148" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
         <v>275</v>
@@ -4786,7 +4868,7 @@
         <v>206</v>
       </c>
       <c r="E149" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4794,16 +4876,16 @@
         <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D150" t="s">
         <v>206</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4811,7 +4893,7 @@
         <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
         <v>275</v>
@@ -4820,7 +4902,7 @@
         <v>206</v>
       </c>
       <c r="E151" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4828,16 +4910,16 @@
         <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D152" t="s">
         <v>206</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>290</v>
+      <c r="E152" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4845,7 +4927,7 @@
         <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C153" t="s">
         <v>275</v>
@@ -4853,8 +4935,8 @@
       <c r="D153" t="s">
         <v>206</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>237</v>
+      <c r="E153" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4862,16 +4944,16 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C154" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D154" t="s">
         <v>206</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,7 +4961,7 @@
         <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C155" t="s">
         <v>275</v>
@@ -4888,7 +4970,7 @@
         <v>206</v>
       </c>
       <c r="E155" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4896,16 +4978,16 @@
         <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
         <v>206</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,7 +4995,7 @@
         <v>194</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
         <v>275</v>
@@ -4922,7 +5004,7 @@
         <v>206</v>
       </c>
       <c r="E157" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,16 +5012,16 @@
         <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D158" t="s">
         <v>206</v>
       </c>
-      <c r="E158" t="s">
-        <v>293</v>
+      <c r="E158" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,7 +5029,7 @@
         <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C159" t="s">
         <v>275</v>
@@ -4955,8 +5037,8 @@
       <c r="D159" t="s">
         <v>206</v>
       </c>
-      <c r="E159" t="s">
-        <v>294</v>
+      <c r="E159" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,16 +5046,16 @@
         <v>194</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D160" t="s">
         <v>206</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,7 +5063,7 @@
         <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C161" t="s">
         <v>275</v>
@@ -4990,7 +5072,7 @@
         <v>206</v>
       </c>
       <c r="E161" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4998,26 +5080,151 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C162" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="D162" t="s">
         <v>206</v>
       </c>
       <c r="E162" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B163" t="s">
+        <v>283</v>
+      </c>
+      <c r="C163" t="s">
+        <v>275</v>
+      </c>
+      <c r="D163" t="s">
+        <v>206</v>
+      </c>
+      <c r="E163" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" t="s">
+        <v>284</v>
+      </c>
+      <c r="C164" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" t="s">
+        <v>206</v>
+      </c>
+      <c r="E164" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" t="s">
+        <v>284</v>
+      </c>
+      <c r="C165" t="s">
+        <v>275</v>
+      </c>
+      <c r="D165" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
+        <v>206</v>
+      </c>
+      <c r="E166" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" t="s">
+        <v>285</v>
+      </c>
+      <c r="C167" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" t="s">
+        <v>206</v>
+      </c>
+      <c r="E167" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B168" t="s">
+        <v>560</v>
+      </c>
+      <c r="C168" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" t="s">
+        <v>206</v>
+      </c>
+      <c r="E168" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E165" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
+  <autoFilter ref="A1:E171" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7369E0-9BAA-4434-8D31-B1F32313EED9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B22">
+    <sortCondition ref="B1:B22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0227-D343-44B4-BF32-31EBFF759EBB}">
   <dimension ref="A1:E136"/>
   <sheetViews>
@@ -7349,7 +7556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CE5B0F-88AD-4ED4-809C-FD57BE944625}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -7548,18 +7755,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A6E1A-3208-4F3C-9CAE-0991D354834D}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="94" customWidth="1"/>
@@ -7568,86 +7775,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,13 +7862,13 @@
         <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,1623 +7876,1693 @@
         <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C27" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C28" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C29" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C30" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C31" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C32" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C33" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C35" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C36" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C37" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C38" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C39" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C40" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C41" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C42" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C43" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C44" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D44" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C45" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C46" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C47" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D47" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C49" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D49" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C50" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C51" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D51" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C52" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C53" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D53" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C54" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D54" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C55" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D55" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C56" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C57" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D57" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C59" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C60" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D60" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C61" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C62" t="s">
-        <v>529</v>
+        <v>206</v>
       </c>
       <c r="D62" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>521</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C64" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D65" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D66" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C67" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D67" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C68" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C69" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C70" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>560</v>
       </c>
       <c r="B71" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C72" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D72" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C73" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D73" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C74" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C75" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B76" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C76" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D76" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B77" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C77" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B78" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C78" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B79" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C79" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C80" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D80" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="C81" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D81" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D82" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B83" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C83" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C84" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D84" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C85" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D85" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C86" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C87" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D87" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C88" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D88" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C89" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D89" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B91" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D91" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C92" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B93" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C93" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B94" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C94" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C95" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B96" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C96" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D96" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C97" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D97" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C98" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B99" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D99" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B100" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C100" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D100" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="C101" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B102" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C102" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B103" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D103" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B104" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="C104" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B105" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C105" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D105" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C106" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D106" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D107" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="C108" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D108" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C109" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C110" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>393</v>
+        <v>280</v>
       </c>
       <c r="B111" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C111" t="s">
-        <v>533</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C112" t="s">
-        <v>533</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C113" t="s">
         <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B114" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C114" t="s">
         <v>206</v>
       </c>
       <c r="D114" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B115" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C115" t="s">
         <v>206</v>
       </c>
       <c r="D115" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C116" t="s">
         <v>206</v>
       </c>
       <c r="D116" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B117" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C118" t="s">
         <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C119" t="s">
         <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C120" t="s">
         <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>392</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>516</v>
       </c>
       <c r="D121" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>541</v>
       </c>
       <c r="B122" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>523</v>
       </c>
       <c r="D122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>542</v>
+      </c>
+      <c r="B123" t="s">
+        <v>543</v>
+      </c>
+      <c r="C123" t="s">
+        <v>523</v>
+      </c>
+      <c r="D123" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>529</v>
+      </c>
+      <c r="B124" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" t="s">
+        <v>525</v>
+      </c>
+      <c r="D124" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>527</v>
+      </c>
+      <c r="B125" t="s">
+        <v>545</v>
+      </c>
+      <c r="C125" t="s">
+        <v>525</v>
+      </c>
+      <c r="D125" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>546</v>
+      </c>
+      <c r="B126" t="s">
+        <v>547</v>
+      </c>
+      <c r="C126" t="s">
+        <v>525</v>
+      </c>
+      <c r="D126" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>528</v>
+      </c>
+      <c r="B127" t="s">
+        <v>548</v>
+      </c>
+      <c r="C127" t="s">
+        <v>525</v>
+      </c>
+      <c r="D127" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>549</v>
+      </c>
+      <c r="B128" t="s">
+        <v>550</v>
+      </c>
+      <c r="C128" t="s">
+        <v>525</v>
+      </c>
+      <c r="D128" t="s">
         <v>395</v>
-      </c>
-      <c r="B123" t="s">
-        <v>522</v>
-      </c>
-      <c r="C123" t="s">
-        <v>524</v>
-      </c>
-      <c r="D123" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/batt_sust_model/data/process_formulas.xlsx
+++ b/batt_sust_model/data/process_formulas.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Batt_Sust_Model-1\batt_sust_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98725044-78F7-4703-BFD4-08A710318EBB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="4" r:id="rId1"/>
-    <sheet name="activity_functions_cut_off" sheetId="5" r:id="rId2"/>
+    <sheet name="activity_functions" sheetId="5" r:id="rId2"/>
     <sheet name="cut_off_modules" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">activity_functions_cut_off!$A$1:$E$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">activity_functions!$A$1:$E$178</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="540">
   <si>
     <t>coolant</t>
   </si>
@@ -1653,6 +1653,12 @@
   </si>
   <si>
     <t>separator_19um/(py_cell_aging*py_separator_stacking)</t>
+  </si>
+  <si>
+    <t>battery_jacket/battery_jacket</t>
+  </si>
+  <si>
+    <t>cell_container/cell_container</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,16 +2159,16 @@
         <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>261</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,7 +2179,7 @@
         <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>514</v>
+        <v>258</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>166</v>
@@ -2190,13 +2196,13 @@
         <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,13 +2213,13 @@
         <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2230,7 @@
         <v>257</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>259</v>
+        <v>513</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>166</v>
@@ -2241,7 +2247,7 @@
         <v>257</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>166</v>
@@ -2254,34 +2260,34 @@
       <c r="A13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="B13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E13" t="s">
-        <v>156</v>
+      <c r="E13" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,13 +2298,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,13 +2332,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,13 +2349,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>161</v>
+      <c r="E18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,13 +2366,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,13 +2383,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,13 +2400,13 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,30 +2417,30 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,19 +2448,19 @@
         <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>166</v>
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -2462,13 +2468,13 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,14 +2484,14 @@
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,13 +2502,13 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,13 +2519,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,13 +2536,13 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,13 +2553,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,13 +2570,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,13 +2587,13 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>512</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,13 +2604,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,13 +2621,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D34" t="s">
         <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2632,13 +2638,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,13 +2655,13 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,13 +2672,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,16 +2686,16 @@
         <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,16 +2703,16 @@
         <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,13 +2723,13 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2734,13 +2740,13 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
         <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,13 +2757,13 @@
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,13 +2774,13 @@
         <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,13 +2791,13 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,13 +2808,13 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
         <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,13 +2825,13 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,13 +2842,13 @@
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
         <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2853,13 +2859,13 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,13 +2876,13 @@
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>166</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,13 +2893,13 @@
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,13 +2910,13 @@
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,13 +2927,13 @@
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,13 +2944,13 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,16 +2958,16 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,16 +2975,16 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2989,13 +2995,13 @@
         <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
         <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,13 +3012,13 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
         <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,13 +3029,13 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,13 +3046,13 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
         <v>166</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,13 +3063,13 @@
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,13 +3080,13 @@
         <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
         <v>166</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3091,13 +3097,13 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
         <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,13 +3114,13 @@
         <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
         <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3125,13 +3131,13 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
         <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,13 +3148,13 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>166</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,13 +3165,13 @@
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,13 +3182,13 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3193,13 +3199,13 @@
         <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
         <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,13 +3216,13 @@
         <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3224,16 +3230,16 @@
         <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,16 +3247,16 @@
         <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,10 +3267,10 @@
         <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
         <v>83</v>
@@ -3275,16 +3281,16 @@
         <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
         <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3292,16 +3298,16 @@
         <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,10 +3318,10 @@
         <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
         <v>82</v>
@@ -3326,16 +3332,16 @@
         <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
         <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3343,16 +3349,16 @@
         <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3363,13 +3369,13 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,13 +3386,13 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,13 +3403,13 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,16 +3417,16 @@
         <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,16 +3434,16 @@
         <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,13 +3454,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
         <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,13 +3471,13 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,13 +3488,13 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,16 +3502,16 @@
         <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,16 +3519,16 @@
         <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,13 +3539,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
         <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,13 +3556,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
         <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,13 +3573,13 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,16 +3587,16 @@
         <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="D91" t="s">
         <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,16 +3604,16 @@
         <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,13 +3624,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
         <v>166</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,13 +3641,13 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>528</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
         <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>533</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,13 +3658,13 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>529</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
         <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>534</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,13 +3675,13 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D96" t="s">
         <v>166</v>
       </c>
       <c r="E96" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3686,13 +3692,13 @@
         <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D97" t="s">
         <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,13 +3709,13 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D98" t="s">
         <v>166</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,13 +3726,13 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>531</v>
       </c>
       <c r="D99" t="s">
         <v>166</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,13 +3743,13 @@
         <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>532</v>
       </c>
       <c r="D100" t="s">
         <v>166</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,13 +3760,13 @@
         <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
         <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,13 +3777,13 @@
         <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D102" t="s">
         <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3788,13 +3794,13 @@
         <v>92</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
         <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,13 +3811,13 @@
         <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,13 +3828,13 @@
         <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,13 +3845,13 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D106" t="s">
         <v>167</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>196</v>
+      <c r="E106" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,50 +3862,50 @@
         <v>92</v>
       </c>
       <c r="C107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" t="s">
         <v>107</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>164</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" t="s">
-        <v>166</v>
-      </c>
-      <c r="E109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>155</v>
       </c>
@@ -3907,16 +3913,16 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
         <v>166</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>155</v>
       </c>
@@ -3924,13 +3930,13 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,16 +3944,16 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D112" t="s">
         <v>166</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,13 +3961,13 @@
         <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
         <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E113" t="s">
         <v>197</v>
@@ -3975,13 +3981,13 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,16 +3995,16 @@
         <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
         <v>166</v>
       </c>
       <c r="E115" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,16 +4012,16 @@
         <v>155</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,13 +4032,13 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
         <v>166</v>
       </c>
       <c r="E117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,13 +4049,13 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
         <v>166</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4060,13 +4066,13 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
         <v>166</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,13 +4083,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="D120" t="s">
         <v>166</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,13 +4100,13 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E121" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4117,13 @@
         <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E122" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,16 +4131,16 @@
         <v>155</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E123" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4142,16 +4148,16 @@
         <v>155</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E124" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4162,13 +4168,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="D125" t="s">
         <v>166</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,13 +4185,13 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4196,13 +4202,13 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,16 +4216,16 @@
         <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4227,13 +4233,13 @@
         <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4247,13 +4253,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="D130" t="s">
         <v>166</v>
       </c>
       <c r="E130" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,13 +4270,13 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
         <v>166</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,13 +4287,13 @@
         <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
         <v>166</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,13 +4304,13 @@
         <v>129</v>
       </c>
       <c r="C133" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
         <v>166</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,13 +4321,13 @@
         <v>129</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" t="s">
         <v>166</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,13 +4338,13 @@
         <v>129</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="D135" t="s">
         <v>166</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,13 +4355,13 @@
         <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D136" t="s">
         <v>166</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,13 +4372,13 @@
         <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
         <v>166</v>
       </c>
       <c r="E137" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4383,13 +4389,13 @@
         <v>129</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
         <v>166</v>
       </c>
       <c r="E138" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,13 +4406,13 @@
         <v>129</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D139" t="s">
         <v>166</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4417,13 +4423,13 @@
         <v>129</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
         <v>166</v>
       </c>
       <c r="E140" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4434,13 +4440,13 @@
         <v>129</v>
       </c>
       <c r="C141" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
         <v>166</v>
       </c>
       <c r="E141" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4451,13 +4457,13 @@
         <v>129</v>
       </c>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" t="s">
         <v>166</v>
       </c>
       <c r="E142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,13 +4474,13 @@
         <v>129</v>
       </c>
       <c r="C143" t="s">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
         <v>166</v>
       </c>
       <c r="E143" t="s">
-        <v>483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,13 +4491,13 @@
         <v>129</v>
       </c>
       <c r="C144" t="s">
-        <v>487</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
         <v>166</v>
       </c>
       <c r="E144" t="s">
-        <v>490</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,13 +4508,13 @@
         <v>129</v>
       </c>
       <c r="C145" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="D145" t="s">
         <v>166</v>
       </c>
       <c r="E145" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,13 +4525,13 @@
         <v>129</v>
       </c>
       <c r="C146" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D146" t="s">
         <v>166</v>
       </c>
       <c r="E146" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4536,13 +4542,13 @@
         <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D147" t="s">
         <v>166</v>
       </c>
       <c r="E147" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4553,13 +4559,13 @@
         <v>129</v>
       </c>
       <c r="C148" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D148" t="s">
         <v>166</v>
       </c>
       <c r="E148" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,13 +4576,13 @@
         <v>129</v>
       </c>
       <c r="C149" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="D149" t="s">
         <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,13 +4593,13 @@
         <v>129</v>
       </c>
       <c r="C150" t="s">
-        <v>142</v>
+        <v>493</v>
       </c>
       <c r="D150" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E150" t="s">
-        <v>140</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,16 +4607,16 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>176</v>
+        <v>494</v>
       </c>
       <c r="D151" t="s">
         <v>166</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,75 +4624,75 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
+      </c>
+      <c r="C152" t="s">
+        <v>142</v>
       </c>
       <c r="D152" t="s">
         <v>164</v>
       </c>
       <c r="E152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
         <v>176</v>
       </c>
       <c r="D153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" t="s">
+        <v>164</v>
+      </c>
+      <c r="E154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
         <v>231</v>
       </c>
-      <c r="C154" t="s">
-        <v>232</v>
-      </c>
-      <c r="D154" t="s">
-        <v>167</v>
-      </c>
-      <c r="E154" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>234</v>
-      </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D155" t="s">
         <v>167</v>
       </c>
       <c r="E155" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
         <v>232</v>
@@ -4695,7 +4701,7 @@
         <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,16 +4709,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>167</v>
       </c>
       <c r="E157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4720,7 +4726,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C158" t="s">
         <v>232</v>
@@ -4729,7 +4735,7 @@
         <v>167</v>
       </c>
       <c r="E158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,16 +4743,16 @@
         <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D159" t="s">
         <v>167</v>
       </c>
       <c r="E159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4754,7 +4760,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
         <v>232</v>
@@ -4763,7 +4769,7 @@
         <v>167</v>
       </c>
       <c r="E160" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,16 +4777,16 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D161" t="s">
         <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4788,7 +4794,7 @@
         <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s">
         <v>232</v>
@@ -4797,7 +4803,7 @@
         <v>167</v>
       </c>
       <c r="E162" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4805,16 +4811,16 @@
         <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D163" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>247</v>
+      <c r="E163" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4822,7 +4828,7 @@
         <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C164" t="s">
         <v>232</v>
@@ -4830,8 +4836,8 @@
       <c r="D164" t="s">
         <v>167</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>196</v>
+      <c r="E164" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,16 +4845,16 @@
         <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D165" t="s">
         <v>167</v>
       </c>
-      <c r="E165" t="s">
-        <v>248</v>
+      <c r="E165" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4856,7 +4862,7 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C166" t="s">
         <v>232</v>
@@ -4864,8 +4870,8 @@
       <c r="D166" t="s">
         <v>167</v>
       </c>
-      <c r="E166" t="s">
-        <v>249</v>
+      <c r="E166" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4873,16 +4879,16 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
         <v>167</v>
       </c>
       <c r="E167" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4890,7 +4896,7 @@
         <v>155</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C168" t="s">
         <v>232</v>
@@ -4899,7 +4905,7 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4907,16 +4913,16 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D169" t="s">
         <v>167</v>
       </c>
       <c r="E169" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4924,7 +4930,7 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" t="s">
         <v>232</v>
@@ -4933,7 +4939,7 @@
         <v>167</v>
       </c>
       <c r="E170" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4941,16 +4947,16 @@
         <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D171" t="s">
         <v>167</v>
       </c>
       <c r="E171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4958,7 +4964,7 @@
         <v>155</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
         <v>232</v>
@@ -4967,7 +4973,7 @@
         <v>167</v>
       </c>
       <c r="E172" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4975,20 +4981,54 @@
         <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>517</v>
+        <v>242</v>
       </c>
       <c r="C173" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="D173" t="s">
         <v>167</v>
       </c>
       <c r="E173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174" t="s">
+        <v>167</v>
+      </c>
+      <c r="E174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B175" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E176" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
+  <autoFilter ref="A1:E178" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -4998,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A6E1A-3208-4F3C-9CAE-0991D354834D}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/batt_sust_model/data/process_formulas.xlsx
+++ b/batt_sust_model/data/process_formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98725044-78F7-4703-BFD4-08A710318EBB}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2E09F5-E0CC-426B-B1CA-1F7CDE967F6A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">activity_functions!$A$1:$E$178</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1127,12 +1127,6 @@
     <t>585b0c03d77aba6ad7b36569b4dbbf06</t>
   </si>
   <si>
-    <t>173f794e673e7092ba56ea0344532db0</t>
-  </si>
-  <si>
-    <t>f2fe690245c8beb9705a414a1810c332</t>
-  </si>
-  <si>
     <t>bd1f0a7eb28eb351f6ffa5ca03a2384d</t>
   </si>
   <si>
@@ -1178,9 +1172,6 @@
     <t>11042b4953c0b15c5fe935b04c291c84</t>
   </si>
   <si>
-    <t>39451b3e3a5e3c92872a8e4c55b8fd4e</t>
-  </si>
-  <si>
     <t>d13b6ea693164b93ad7f7d095e5c4da7_copy1</t>
   </si>
   <si>
@@ -1659,6 +1650,15 @@
   </si>
   <si>
     <t>cell_container/cell_container</t>
+  </si>
+  <si>
+    <t>7bd29e8c8f50f912ebb4a4b563ed1916</t>
+  </si>
+  <si>
+    <t>2c1e6618cded30a45a70bdfdb5a6b200</t>
+  </si>
+  <si>
+    <t>0768e1e61ac3dccf117d93070b0d5e9f</t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,7 +2168,7 @@
         <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>166</v>
@@ -2213,7 +2213,7 @@
         <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>166</v>
@@ -2230,7 +2230,7 @@
         <v>257</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>166</v>
@@ -2287,7 +2287,7 @@
         <v>164</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,13 +2621,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D34" t="s">
         <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,13 +3675,13 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D96" t="s">
         <v>166</v>
       </c>
       <c r="E96" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,13 +3692,13 @@
         <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D97" t="s">
         <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3709,13 +3709,13 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D98" t="s">
         <v>166</v>
       </c>
       <c r="E98" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,13 +3726,13 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D99" t="s">
         <v>166</v>
       </c>
       <c r="E99" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,13 +3743,13 @@
         <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D100" t="s">
         <v>166</v>
       </c>
       <c r="E100" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,13 +4508,13 @@
         <v>129</v>
       </c>
       <c r="C145" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D145" t="s">
         <v>166</v>
       </c>
       <c r="E145" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4525,13 +4525,13 @@
         <v>129</v>
       </c>
       <c r="C146" t="s">
+        <v>484</v>
+      </c>
+      <c r="D146" t="s">
+        <v>166</v>
+      </c>
+      <c r="E146" t="s">
         <v>487</v>
-      </c>
-      <c r="D146" t="s">
-        <v>166</v>
-      </c>
-      <c r="E146" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,13 +4542,13 @@
         <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D147" t="s">
         <v>166</v>
       </c>
       <c r="E147" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4559,13 @@
         <v>129</v>
       </c>
       <c r="C148" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D148" t="s">
         <v>166</v>
       </c>
       <c r="E148" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,13 +4576,13 @@
         <v>129</v>
       </c>
       <c r="C149" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D149" t="s">
         <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,13 +4593,13 @@
         <v>129</v>
       </c>
       <c r="C150" t="s">
+        <v>490</v>
+      </c>
+      <c r="D150" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" t="s">
         <v>493</v>
-      </c>
-      <c r="D150" t="s">
-        <v>166</v>
-      </c>
-      <c r="E150" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,13 +4610,13 @@
         <v>129</v>
       </c>
       <c r="C151" t="s">
+        <v>491</v>
+      </c>
+      <c r="D151" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" t="s">
         <v>494</v>
-      </c>
-      <c r="D151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E151" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>155</v>
       </c>
       <c r="B175" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C175" t="s">
         <v>232</v>
@@ -5038,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A6E1A-3208-4F3C-9CAE-0991D354834D}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>351</v>
@@ -5088,7 +5088,7 @@
         <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
         <v>354</v>
@@ -5102,7 +5102,7 @@
         <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D4" t="s">
         <v>351</v>
@@ -5116,7 +5116,7 @@
         <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D5" t="s">
         <v>351</v>
@@ -5130,7 +5130,7 @@
         <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D6" t="s">
         <v>351</v>
@@ -5141,10 +5141,10 @@
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D7" t="s">
         <v>352</v>
@@ -5155,10 +5155,10 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D8" t="s">
         <v>352</v>
@@ -5169,10 +5169,10 @@
         <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
         <v>351</v>
@@ -5183,10 +5183,10 @@
         <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
         <v>351</v>
@@ -5197,10 +5197,10 @@
         <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
         <v>351</v>
@@ -5211,10 +5211,10 @@
         <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
         <v>351</v>
@@ -5225,10 +5225,10 @@
         <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D13" t="s">
         <v>352</v>
@@ -5239,10 +5239,10 @@
         <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
         <v>351</v>
@@ -5253,10 +5253,10 @@
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D15" t="s">
         <v>352</v>
@@ -5267,10 +5267,10 @@
         <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D16" t="s">
         <v>351</v>
@@ -5281,10 +5281,10 @@
         <v>259</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
         <v>352</v>
@@ -5295,10 +5295,10 @@
         <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
         <v>351</v>
@@ -5309,10 +5309,10 @@
         <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D19" t="s">
         <v>351</v>
@@ -5323,10 +5323,10 @@
         <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
         <v>351</v>
@@ -5337,10 +5337,10 @@
         <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D21" t="s">
         <v>351</v>
@@ -5351,10 +5351,10 @@
         <v>281</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
         <v>351</v>
@@ -5365,10 +5365,10 @@
         <v>282</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D23" t="s">
         <v>351</v>
@@ -5379,10 +5379,10 @@
         <v>258</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
         <v>352</v>
@@ -5393,10 +5393,10 @@
         <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
         <v>352</v>
@@ -5407,10 +5407,10 @@
         <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D26" t="s">
         <v>352</v>
@@ -5421,10 +5421,10 @@
         <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
         <v>352</v>
@@ -5435,10 +5435,10 @@
         <v>285</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
         <v>353</v>
@@ -5449,10 +5449,10 @@
         <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
         <v>351</v>
@@ -5463,10 +5463,10 @@
         <v>287</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D30" t="s">
         <v>353</v>
@@ -5477,10 +5477,10 @@
         <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
         <v>351</v>
@@ -5491,10 +5491,10 @@
         <v>289</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
         <v>351</v>
@@ -5505,10 +5505,10 @@
         <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D33" t="s">
         <v>353</v>
@@ -5519,10 +5519,10 @@
         <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D34" t="s">
         <v>353</v>
@@ -5533,10 +5533,10 @@
         <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D35" t="s">
         <v>353</v>
@@ -5547,10 +5547,10 @@
         <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C36" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D36" t="s">
         <v>353</v>
@@ -5561,10 +5561,10 @@
         <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
         <v>353</v>
@@ -5575,10 +5575,10 @@
         <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D38" t="s">
         <v>353</v>
@@ -5589,10 +5589,10 @@
         <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
         <v>351</v>
@@ -5603,10 +5603,10 @@
         <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C40" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D40" t="s">
         <v>353</v>
@@ -5617,10 +5617,10 @@
         <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D41" t="s">
         <v>353</v>
@@ -5631,10 +5631,10 @@
         <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D42" t="s">
         <v>353</v>
@@ -5645,10 +5645,10 @@
         <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C43" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D43" t="s">
         <v>353</v>
@@ -5659,10 +5659,10 @@
         <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D44" t="s">
         <v>353</v>
@@ -5673,10 +5673,10 @@
         <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D45" t="s">
         <v>353</v>
@@ -5687,10 +5687,10 @@
         <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D46" t="s">
         <v>353</v>
@@ -5701,10 +5701,10 @@
         <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D47" t="s">
         <v>353</v>
@@ -5715,10 +5715,10 @@
         <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D48" t="s">
         <v>352</v>
@@ -5729,10 +5729,10 @@
         <v>305</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
         <v>352</v>
@@ -5743,10 +5743,10 @@
         <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D50" t="s">
         <v>352</v>
@@ -5757,10 +5757,10 @@
         <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D51" t="s">
         <v>352</v>
@@ -5771,10 +5771,10 @@
         <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C52" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D52" t="s">
         <v>352</v>
@@ -5785,10 +5785,10 @@
         <v>309</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D53" t="s">
         <v>352</v>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B54" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C54" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D54" t="s">
         <v>352</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B55" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D55" t="s">
         <v>352</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B56" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D56" t="s">
         <v>352</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C57" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D57" t="s">
         <v>352</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B58" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C58" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -5869,10 +5869,10 @@
         <v>310</v>
       </c>
       <c r="B59" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D59" t="s">
         <v>352</v>
@@ -5883,10 +5883,10 @@
         <v>311</v>
       </c>
       <c r="B60" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
         <v>352</v>
@@ -5897,10 +5897,10 @@
         <v>312</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C61" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D61" t="s">
         <v>352</v>
@@ -5911,10 +5911,10 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D62" t="s">
         <v>352</v>
@@ -5925,10 +5925,10 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
         <v>352</v>
@@ -5939,10 +5939,10 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D64" t="s">
         <v>352</v>
@@ -5953,10 +5953,10 @@
         <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D65" t="s">
         <v>352</v>
@@ -5967,10 +5967,10 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
         <v>352</v>
@@ -5981,7 +5981,7 @@
         <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C67" t="s">
         <v>167</v>
@@ -5995,10 +5995,10 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
         <v>352</v>
@@ -6009,10 +6009,10 @@
         <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D69" t="s">
         <v>352</v>
@@ -6023,10 +6023,10 @@
         <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C70" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D70" t="s">
         <v>352</v>
@@ -6037,10 +6037,10 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D71" t="s">
         <v>352</v>
@@ -6051,10 +6051,10 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D72" t="s">
         <v>352</v>
@@ -6065,10 +6065,10 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D73" t="s">
         <v>352</v>
@@ -6079,10 +6079,10 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D74" t="s">
         <v>352</v>
@@ -6093,10 +6093,10 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C75" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
         <v>352</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B76" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D76" t="s">
         <v>352</v>
@@ -6121,10 +6121,10 @@
         <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C77" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D77" t="s">
         <v>352</v>
@@ -6135,10 +6135,10 @@
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D78" t="s">
         <v>352</v>
@@ -6149,10 +6149,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D79" t="s">
         <v>353</v>
@@ -6163,10 +6163,10 @@
         <v>314</v>
       </c>
       <c r="B80" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D80" t="s">
         <v>353</v>
@@ -6177,10 +6177,10 @@
         <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D81" t="s">
         <v>353</v>
@@ -6191,10 +6191,10 @@
         <v>316</v>
       </c>
       <c r="B82" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C82" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D82" t="s">
         <v>352</v>
@@ -6205,10 +6205,10 @@
         <v>317</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C83" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D83" t="s">
         <v>352</v>
@@ -6219,10 +6219,10 @@
         <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D84" t="s">
         <v>351</v>
@@ -6233,10 +6233,10 @@
         <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C85" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D85" t="s">
         <v>352</v>
@@ -6247,10 +6247,10 @@
         <v>320</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D86" t="s">
         <v>352</v>
@@ -6261,10 +6261,10 @@
         <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D87" t="s">
         <v>352</v>
@@ -6275,10 +6275,10 @@
         <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C88" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D88" t="s">
         <v>352</v>
@@ -6289,10 +6289,10 @@
         <v>323</v>
       </c>
       <c r="B89" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D89" t="s">
         <v>352</v>
@@ -6303,10 +6303,10 @@
         <v>324</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C90" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D90" t="s">
         <v>352</v>
@@ -6317,10 +6317,10 @@
         <v>325</v>
       </c>
       <c r="B91" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C91" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D91" t="s">
         <v>352</v>
@@ -6331,10 +6331,10 @@
         <v>326</v>
       </c>
       <c r="B92" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C92" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D92" t="s">
         <v>352</v>
@@ -6345,10 +6345,10 @@
         <v>327</v>
       </c>
       <c r="B93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C93" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D93" t="s">
         <v>352</v>
@@ -6359,10 +6359,10 @@
         <v>328</v>
       </c>
       <c r="B94" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C94" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D94" t="s">
         <v>352</v>
@@ -6373,10 +6373,10 @@
         <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C95" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D95" t="s">
         <v>352</v>
@@ -6387,10 +6387,10 @@
         <v>330</v>
       </c>
       <c r="B96" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C96" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D96" t="s">
         <v>352</v>
@@ -6401,10 +6401,10 @@
         <v>331</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D97" t="s">
         <v>352</v>
@@ -6415,10 +6415,10 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
         <v>352</v>
@@ -6429,10 +6429,10 @@
         <v>333</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C99" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D99" t="s">
         <v>352</v>
@@ -6443,10 +6443,10 @@
         <v>334</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C100" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D100" t="s">
         <v>352</v>
@@ -6457,10 +6457,10 @@
         <v>335</v>
       </c>
       <c r="B101" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C101" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D101" t="s">
         <v>352</v>
@@ -6471,10 +6471,10 @@
         <v>336</v>
       </c>
       <c r="B102" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C102" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D102" t="s">
         <v>352</v>
@@ -6485,10 +6485,10 @@
         <v>337</v>
       </c>
       <c r="B103" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C103" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
         <v>352</v>
@@ -6499,10 +6499,10 @@
         <v>338</v>
       </c>
       <c r="B104" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C104" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
         <v>352</v>
@@ -6513,10 +6513,10 @@
         <v>339</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C105" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D105" t="s">
         <v>352</v>
@@ -6527,10 +6527,10 @@
         <v>340</v>
       </c>
       <c r="B106" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C106" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D106" t="s">
         <v>352</v>
@@ -6541,10 +6541,10 @@
         <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D107" t="s">
         <v>352</v>
@@ -6555,10 +6555,10 @@
         <v>342</v>
       </c>
       <c r="B108" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C108" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D108" t="s">
         <v>351</v>
@@ -6569,10 +6569,10 @@
         <v>343</v>
       </c>
       <c r="B109" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C109" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D109" t="s">
         <v>352</v>
@@ -6583,10 +6583,10 @@
         <v>344</v>
       </c>
       <c r="B110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C110" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D110" t="s">
         <v>352</v>
@@ -6597,10 +6597,10 @@
         <v>257</v>
       </c>
       <c r="B111" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C111" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D111" t="s">
         <v>352</v>
@@ -6611,10 +6611,10 @@
         <v>345</v>
       </c>
       <c r="B112" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D112" t="s">
         <v>352</v>
@@ -6625,10 +6625,10 @@
         <v>346</v>
       </c>
       <c r="B113" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C113" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D113" t="s">
         <v>352</v>
@@ -6639,10 +6639,10 @@
         <v>347</v>
       </c>
       <c r="B114" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C114" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D114" t="s">
         <v>352</v>
@@ -6653,10 +6653,10 @@
         <v>348</v>
       </c>
       <c r="B115" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D115" t="s">
         <v>352</v>
@@ -6667,7 +6667,7 @@
         <v>237</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C116" t="s">
         <v>167</v>
@@ -6681,7 +6681,7 @@
         <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C117" t="s">
         <v>167</v>
@@ -6695,7 +6695,7 @@
         <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C118" t="s">
         <v>167</v>
@@ -6709,7 +6709,7 @@
         <v>240</v>
       </c>
       <c r="B119" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C119" t="s">
         <v>167</v>
@@ -6723,7 +6723,7 @@
         <v>242</v>
       </c>
       <c r="B120" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C120" t="s">
         <v>167</v>
@@ -6737,7 +6737,7 @@
         <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C121" t="s">
         <v>167</v>
@@ -6751,7 +6751,7 @@
         <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C122" t="s">
         <v>167</v>
@@ -6765,7 +6765,7 @@
         <v>236</v>
       </c>
       <c r="B123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C123" t="s">
         <v>167</v>
@@ -6779,7 +6779,7 @@
         <v>238</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C124" t="s">
         <v>167</v>
@@ -6793,7 +6793,7 @@
         <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C125" t="s">
         <v>167</v>
@@ -6807,10 +6807,10 @@
         <v>349</v>
       </c>
       <c r="B126" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C126" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D126" t="s">
         <v>352</v>
@@ -6818,13 +6818,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C127" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D127" t="s">
         <v>352</v>
@@ -6832,13 +6832,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B128" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C128" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D128" t="s">
         <v>351</v>
@@ -6846,13 +6846,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B129" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C129" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D129" t="s">
         <v>351</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B130" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C130" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D130" t="s">
         <v>351</v>
@@ -6874,13 +6874,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B131" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C131" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D131" t="s">
         <v>351</v>
@@ -6888,13 +6888,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B132" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C132" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D132" t="s">
         <v>351</v>
@@ -6902,13 +6902,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B133" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C133" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D133" t="s">
         <v>352</v>

--- a/batt_sust_model/data/process_formulas.xlsx
+++ b/batt_sust_model/data/process_formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2E09F5-E0CC-426B-B1CA-1F7CDE967F6A}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5D698A5D-FAF3-4F5A-8A71-A80C05D05A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAFA918D-FB92-4042-A004-D9ECE864F213}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{97C706CC-B37A-4D42-9A21-2C010DC8249A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="4" r:id="rId1"/>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC479-ABFB-4F63-B845-C063C59DD189}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A6E1A-3208-4F3C-9CAE-0991D354834D}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
